--- a/data/output/Pedido_Semana_14_2026-02-03_tierras_aridos.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_tierras_aridos.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>82.64</v>
@@ -808,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>31.96</v>
@@ -874,10 +874,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>29.96</v>
@@ -940,10 +940,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>406.63</v>
@@ -1006,10 +1006,10 @@
         <v>6</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="4" t="n">
         <v>142.2</v>
@@ -1072,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="4" t="n">
         <v>299.25</v>
@@ -1138,10 +1138,10 @@
         <v>6</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>263.5</v>
@@ -1270,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="4" t="n">
         <v>26.91</v>
@@ -1336,10 +1336,10 @@
         <v>3</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="4" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="4" t="n">
         <v>19</v>
@@ -1930,10 +1930,10 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="4" t="n">
         <v>29.94</v>
@@ -2062,10 +2062,10 @@
         <v>2</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="4" t="n">
         <v>23.96</v>
@@ -2260,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>44.94</v>
@@ -2590,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="4" t="n">
         <v>40.41</v>
@@ -2656,10 +2656,10 @@
         <v>3</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="4" t="n">
         <v>40.41</v>
@@ -2722,10 +2722,10 @@
         <v>2</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>26.94</v>
@@ -2986,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N38" s="4" t="n">
         <v>15</v>
@@ -3118,10 +3118,10 @@
         <v>2</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>35.4</v>
@@ -3316,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>13.98</v>
@@ -3448,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>104.65</v>
@@ -3580,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>5.98</v>
@@ -3712,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="4" t="n">
         <v>30.44</v>
@@ -3778,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="4" t="n">
         <v>39.92</v>
@@ -3910,10 +3910,10 @@
         <v>2</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="4" t="n">
         <v>26.94</v>
@@ -4108,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N55" s="4" t="n">
         <v>111.84</v>
@@ -4194,12 +4194,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>3203030004</t>
+          <t>3203030005</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>PERLITA 5L</t>
+          <t>VERMICULITA 5L</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -4221,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>5.79</v>
+        <v>6.5</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>2.17</v>
+        <v>2.34</v>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>5.79</v>
+        <v>6.5</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>3.62</v>
+        <v>4.16</v>
       </c>
       <c r="P57" s="5" t="inlineStr">
         <is>
@@ -4260,12 +4260,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>3203030005</t>
+          <t>3203040001</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>VERMICULITA 5L</t>
+          <t>SUBSTRATO DE COCO FLOWER TACO 9L</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -4287,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>6.5</v>
+        <v>3.89</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>6.5</v>
+        <v>3.89</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>4.16</v>
+        <v>2.4</v>
       </c>
       <c r="P58" s="5" t="inlineStr">
         <is>
@@ -4326,22 +4326,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>3203040001</t>
+          <t>3101010005</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SUBSTRATO DE COCO FLOWER TACO 9L</t>
+          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">50L      </t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
@@ -4350,13 +4350,13 @@
         </is>
       </c>
       <c r="F59" s="3" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>3.89</v>
+        <v>7.99</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>1.49</v>
+        <v>3.54</v>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
@@ -4369,23 +4369,23 @@
         </is>
       </c>
       <c r="K59" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>3.89</v>
+        <v>263.67</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>2.4</v>
+        <v>146.85</v>
       </c>
       <c r="P59" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRODUCTOS FLOWER, S.A.                                                                                                  </t>
+          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50L      </t>
+          <t xml:space="preserve">70L      </t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -4416,13 +4416,13 @@
         </is>
       </c>
       <c r="F60" s="3" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>7.99</v>
+        <v>10.5</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>3.54</v>
+        <v>4.72</v>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
@@ -4435,19 +4435,19 @@
         </is>
       </c>
       <c r="K60" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>263.67</v>
+        <v>220.5</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>146.85</v>
+        <v>121.38</v>
       </c>
       <c r="P60" s="5" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">70L      </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F61" s="3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>10.5</v>
+        <v>3.95</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>4.72</v>
+        <v>1.47</v>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
@@ -4501,19 +4501,19 @@
         </is>
       </c>
       <c r="K61" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N61" s="4" t="n">
-        <v>220.5</v>
+        <v>114.55</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>121.38</v>
+        <v>71.92</v>
       </c>
       <c r="P61" s="5" t="inlineStr">
         <is>
@@ -4524,22 +4524,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>3101010005</t>
+          <t>3102040002</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
+          <t>SACO SUSTRATO GERANIOS, PLANTAS FLOR Y BALCON 45L</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
@@ -4548,13 +4548,13 @@
         </is>
       </c>
       <c r="F62" s="3" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G62" s="4" t="n">
-        <v>3.95</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>1.47</v>
+        <v>4.09</v>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
@@ -4567,19 +4567,19 @@
         </is>
       </c>
       <c r="K62" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>114.55</v>
+        <v>17.9</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>71.92</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="P62" s="5" t="inlineStr">
         <is>
@@ -4590,22 +4590,22 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3102040002</t>
+          <t>3102060002</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO GERANIOS, PLANTAS FLOR Y BALCON 45L</t>
+          <t>SACO SUSTRATO PLANTAS ACIDOFILAS</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">45L      </t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
@@ -4614,13 +4614,13 @@
         </is>
       </c>
       <c r="F63" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63" s="4" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>4.09</v>
+        <v>4.12</v>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
@@ -4633,19 +4633,19 @@
         </is>
       </c>
       <c r="K63" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>17.9</v>
+        <v>35.8</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>19.32</v>
       </c>
       <c r="P63" s="5" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">45L      </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -4683,10 +4683,10 @@
         <v>4</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>4.12</v>
+        <v>1.78</v>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
@@ -4708,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>35.8</v>
+        <v>18</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>19.32</v>
+        <v>10.88</v>
       </c>
       <c r="P64" s="5" t="inlineStr">
         <is>
@@ -4722,22 +4722,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>3102060002</t>
+          <t>3102080001</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO PLANTAS ACIDOFILAS</t>
+          <t>SACO SUSTRATO COCOPLUS 50L</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -4746,13 +4746,13 @@
         </is>
       </c>
       <c r="F65" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>4.5</v>
+        <v>10.95</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>1.78</v>
+        <v>5.04</v>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
@@ -4765,19 +4765,19 @@
         </is>
       </c>
       <c r="K65" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>18</v>
+        <v>10.95</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>10.88</v>
+        <v>5.91</v>
       </c>
       <c r="P65" s="5" t="inlineStr">
         <is>
@@ -4788,12 +4788,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>3102080001</t>
+          <t>3102110003</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO COCOPLUS 50L</t>
+          <t>SACO TIERRA ENRIQUECIDA 50L</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F66" s="3" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>10.95</v>
+        <v>6.49</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>5.04</v>
+        <v>2.93</v>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
@@ -4831,19 +4831,19 @@
         </is>
       </c>
       <c r="K66" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="M66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>10.95</v>
+        <v>240.13</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>5.91</v>
+        <v>131.72</v>
       </c>
       <c r="P66" s="5" t="inlineStr">
         <is>
@@ -4854,12 +4854,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>3102110003</t>
+          <t>3202020001</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>SACO TIERRA ENRIQUECIDA 50L</t>
+          <t>SACO ABONO ORGANICO EQUINO 50L</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -4878,13 +4878,13 @@
         </is>
       </c>
       <c r="F67" s="3" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>6.49</v>
+        <v>5.95</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>2.93</v>
+        <v>2.73</v>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
@@ -4897,19 +4897,19 @@
         </is>
       </c>
       <c r="K67" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>240.13</v>
+        <v>35.7</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>131.72</v>
+        <v>19.32</v>
       </c>
       <c r="P67" s="5" t="inlineStr">
         <is>
@@ -4920,12 +4920,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>3202020001</t>
+          <t>3202030004</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SACO ABONO ORGANICO EQUINO 50L</t>
+          <t>SACO HUMUS DE LOMBRIZ 50L</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -4947,10 +4947,10 @@
         <v>6</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>5.95</v>
+        <v>13.95</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>2.73</v>
+        <v>6.37</v>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>35.7</v>
+        <v>83.7</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>19.32</v>
+        <v>45.48</v>
       </c>
       <c r="P68" s="5" t="inlineStr">
         <is>
@@ -4986,12 +4986,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>3202030004</t>
+          <t>3202030005</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SACO HUMUS DE LOMBRIZ 50L</t>
+          <t>SACO MANTILLO SUPER 50L</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -5010,13 +5010,13 @@
         </is>
       </c>
       <c r="F69" s="3" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>13.95</v>
+        <v>5.49</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>6.37</v>
+        <v>2.19</v>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
@@ -5029,19 +5029,19 @@
         </is>
       </c>
       <c r="K69" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>83.7</v>
+        <v>290.97</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>45.48</v>
+        <v>174.9</v>
       </c>
       <c r="P69" s="5" t="inlineStr">
         <is>
@@ -5052,12 +5052,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>3202030005</t>
+          <t>3202030006</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SACO MANTILLO SUPER 50L</t>
+          <t>SACO RECEBO SUPER 45L</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -5076,13 +5076,13 @@
         </is>
       </c>
       <c r="F70" s="3" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>5.49</v>
+        <v>6.99</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>2.19</v>
+        <v>3.13</v>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
@@ -5095,19 +5095,19 @@
         </is>
       </c>
       <c r="K70" s="3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>290.97</v>
+        <v>90.87</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>174.9</v>
+        <v>50.18</v>
       </c>
       <c r="P70" s="5" t="inlineStr">
         <is>
@@ -5118,12 +5118,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>3202030006</t>
+          <t>3203010001</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>SACO RECEBO SUPER 45L</t>
+          <t>SACO CORTEZA PINO EMUFLOR 50L</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F71" s="3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>6.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>3.13</v>
+        <v>4.01</v>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
@@ -5161,19 +5161,19 @@
         </is>
       </c>
       <c r="K71" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N71" s="4" t="n">
-        <v>90.87</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>50.18</v>
+        <v>39.52</v>
       </c>
       <c r="P71" s="5" t="inlineStr">
         <is>
@@ -5181,151 +5181,95 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>3203010001</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>SACO CORTEZA PINO EMUFLOR 50L</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>tierras_aridos</t>
-        </is>
-      </c>
-      <c r="F72" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G72" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="H72" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K72" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" s="4" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="O72" s="4" t="n">
-        <v>39.52</v>
-      </c>
-      <c r="P72" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
+    <row r="73">
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>METRICAS DE RESUMEN</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="6" t="inlineStr">
-        <is>
-          <t>METRICAS DE RESUMEN</t>
-        </is>
+      <c r="B74" s="7" t="inlineStr">
+        <is>
+          <t>Total_Unidades:</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="n">
+        <v>630</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="7" t="inlineStr">
         <is>
-          <t>Total_Unidades:</t>
+          <t>Total_Articulos:</t>
         </is>
       </c>
       <c r="C75" s="8" t="n">
-        <v>589</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="7" t="inlineStr">
         <is>
-          <t>Total_Articulos:</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="n">
-        <v>71</v>
+          <t>Total_Importe:</t>
+        </is>
+      </c>
+      <c r="C76" s="8" t="inlineStr">
+        <is>
+          <t>5381.35€</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="7" t="inlineStr">
         <is>
-          <t>Total_Importe:</t>
+          <t>Objetivo_Semana:</t>
         </is>
       </c>
       <c r="C77" s="8" t="inlineStr">
         <is>
-          <t>5387.14€</t>
+          <t>4097.24€</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="7" t="inlineStr">
         <is>
-          <t>Objetivo_Semana:</t>
+          <t>Factor_Crecimiento:</t>
         </is>
       </c>
       <c r="C78" s="8" t="inlineStr">
         <is>
-          <t>4097.24€</t>
+          <t>5%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="7" t="inlineStr">
         <is>
-          <t>Factor_Crecimiento:</t>
+          <t>Factor_Festivo:</t>
         </is>
       </c>
       <c r="C79" s="8" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>25%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="7" t="inlineStr">
         <is>
-          <t>Factor_Festivo:</t>
-        </is>
-      </c>
-      <c r="C80" s="8" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
+          <t>Articulos_A:</t>
+        </is>
+      </c>
+      <c r="C80" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="7" t="inlineStr">
         <is>
-          <t>Articulos_A:</t>
+          <t>Articulos_B:</t>
         </is>
       </c>
       <c r="C81" s="8" t="n">
@@ -5335,58 +5279,48 @@
     <row r="82">
       <c r="B82" s="7" t="inlineStr">
         <is>
-          <t>Articulos_B:</t>
+          <t>Articulos_C:</t>
         </is>
       </c>
       <c r="C82" s="8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="7" t="inlineStr">
         <is>
-          <t>Articulos_C:</t>
-        </is>
-      </c>
-      <c r="C83" s="8" t="n">
-        <v>71</v>
+          <t>Stock_Minimo_%:</t>
+        </is>
+      </c>
+      <c r="C83" s="8" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_%:</t>
-        </is>
-      </c>
-      <c r="C84" s="8" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+          <t>Stock_Minimo_Objetivo:</t>
+        </is>
+      </c>
+      <c r="C84" s="8" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_Objetivo:</t>
+          <t>Total_Ajuste_Stock:</t>
         </is>
       </c>
       <c r="C85" s="8" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="7" t="inlineStr">
-        <is>
-          <t>Total_Ajuste_Stock:</t>
-        </is>
-      </c>
-      <c r="C86" s="8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/output/Pedido_Semana_14_2026-02-03_tierras_aridos.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_tierras_aridos.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>82.64</v>
@@ -808,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>31.96</v>
@@ -874,10 +874,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>29.96</v>
@@ -940,10 +940,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>406.63</v>
@@ -1006,10 +1006,10 @@
         <v>6</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
         <v>142.2</v>
@@ -1072,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
         <v>299.25</v>
@@ -1138,10 +1138,10 @@
         <v>6</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>263.5</v>
@@ -1270,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
         <v>26.91</v>
@@ -1336,10 +1336,10 @@
         <v>3</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
         <v>19</v>
@@ -1930,10 +1930,10 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4" t="n">
         <v>29.94</v>
@@ -2062,10 +2062,10 @@
         <v>2</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
         <v>23.96</v>
@@ -2260,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>44.94</v>
@@ -2590,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
         <v>40.41</v>
@@ -2656,10 +2656,10 @@
         <v>3</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
         <v>40.41</v>
@@ -2722,10 +2722,10 @@
         <v>2</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>26.94</v>
@@ -2986,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
         <v>15</v>
@@ -3118,10 +3118,10 @@
         <v>2</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>35.4</v>
@@ -3316,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>13.98</v>
@@ -3448,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>104.65</v>
@@ -3580,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>5.98</v>
@@ -3712,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="4" t="n">
         <v>30.44</v>
@@ -3778,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4" t="n">
         <v>39.92</v>
@@ -3910,10 +3910,10 @@
         <v>2</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="4" t="n">
         <v>26.94</v>
@@ -4108,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N55" s="4" t="n">
         <v>111.84</v>
@@ -4194,12 +4194,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>3203030005</t>
+          <t>3203030004</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>VERMICULITA 5L</t>
+          <t>PERLITA 5L</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -4221,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>6.5</v>
+        <v>5.79</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>2.34</v>
+        <v>2.17</v>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>6.5</v>
+        <v>5.79</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>4.16</v>
+        <v>3.62</v>
       </c>
       <c r="P57" s="5" t="inlineStr">
         <is>
@@ -4260,12 +4260,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>3203040001</t>
+          <t>3203030005</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SUBSTRATO DE COCO FLOWER TACO 9L</t>
+          <t>VERMICULITA 5L</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -4287,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>3.89</v>
+        <v>6.5</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>3.89</v>
+        <v>6.5</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>2.4</v>
+        <v>4.16</v>
       </c>
       <c r="P58" s="5" t="inlineStr">
         <is>
@@ -4326,22 +4326,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>3101010005</t>
+          <t>3203040001</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
+          <t>SUBSTRATO DE COCO FLOWER TACO 9L</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50L      </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
@@ -4350,13 +4350,13 @@
         </is>
       </c>
       <c r="F59" s="3" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>7.99</v>
+        <v>3.89</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>3.54</v>
+        <v>1.49</v>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
@@ -4369,23 +4369,23 @@
         </is>
       </c>
       <c r="K59" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>263.67</v>
+        <v>3.89</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>146.85</v>
+        <v>2.4</v>
       </c>
       <c r="P59" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
+          <t xml:space="preserve">PRODUCTOS FLOWER, S.A.                                                                                                  </t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">70L      </t>
+          <t xml:space="preserve">50L      </t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -4416,13 +4416,13 @@
         </is>
       </c>
       <c r="F60" s="3" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>10.5</v>
+        <v>7.99</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>4.72</v>
+        <v>3.54</v>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
@@ -4435,19 +4435,19 @@
         </is>
       </c>
       <c r="K60" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>220.5</v>
+        <v>263.67</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>121.38</v>
+        <v>146.85</v>
       </c>
       <c r="P60" s="5" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">70L      </t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F61" s="3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>3.95</v>
+        <v>10.5</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>1.47</v>
+        <v>4.72</v>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
@@ -4501,19 +4501,19 @@
         </is>
       </c>
       <c r="K61" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N61" s="4" t="n">
-        <v>114.55</v>
+        <v>220.5</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>71.92</v>
+        <v>121.38</v>
       </c>
       <c r="P61" s="5" t="inlineStr">
         <is>
@@ -4524,22 +4524,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>3102040002</t>
+          <t>3101010005</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO GERANIOS, PLANTAS FLOR Y BALCON 45L</t>
+          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
@@ -4548,13 +4548,13 @@
         </is>
       </c>
       <c r="F62" s="3" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G62" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>3.95</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>4.09</v>
+        <v>1.47</v>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
@@ -4567,19 +4567,19 @@
         </is>
       </c>
       <c r="K62" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>17.9</v>
+        <v>114.55</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>71.92</v>
       </c>
       <c r="P62" s="5" t="inlineStr">
         <is>
@@ -4590,22 +4590,22 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3102060002</t>
+          <t>3102040002</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO PLANTAS ACIDOFILAS</t>
+          <t>SACO SUSTRATO GERANIOS, PLANTAS FLOR Y BALCON 45L</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">45L      </t>
+          <t>         </t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNICO   </t>
+          <t>        </t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
@@ -4614,13 +4614,13 @@
         </is>
       </c>
       <c r="F63" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63" s="4" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
@@ -4633,19 +4633,19 @@
         </is>
       </c>
       <c r="K63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L63" s="3" t="n">
-        <v>5</v>
-      </c>
       <c r="M63" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>35.8</v>
+        <v>17.9</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>19.32</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="P63" s="5" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">45L      </t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -4683,10 +4683,10 @@
         <v>4</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>4.5</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>1.78</v>
+        <v>4.12</v>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
@@ -4708,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>18</v>
+        <v>35.8</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>10.88</v>
+        <v>19.32</v>
       </c>
       <c r="P64" s="5" t="inlineStr">
         <is>
@@ -4722,22 +4722,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>3102080001</t>
+          <t>3102060002</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SACO SUSTRATO COCOPLUS 50L</t>
+          <t>SACO SUSTRATO PLANTAS ACIDOFILAS</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>        </t>
+          <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -4746,13 +4746,13 @@
         </is>
       </c>
       <c r="F65" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>10.95</v>
+        <v>4.5</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>5.04</v>
+        <v>1.78</v>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
@@ -4765,19 +4765,19 @@
         </is>
       </c>
       <c r="K65" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>10.95</v>
+        <v>18</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>5.91</v>
+        <v>10.88</v>
       </c>
       <c r="P65" s="5" t="inlineStr">
         <is>
@@ -4788,12 +4788,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>3102110003</t>
+          <t>3102080001</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>SACO TIERRA ENRIQUECIDA 50L</t>
+          <t>SACO SUSTRATO COCOPLUS 50L</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F66" s="3" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>6.49</v>
+        <v>10.95</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>2.93</v>
+        <v>5.04</v>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
@@ -4831,19 +4831,19 @@
         </is>
       </c>
       <c r="K66" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="M66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>240.13</v>
+        <v>10.95</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>131.72</v>
+        <v>5.91</v>
       </c>
       <c r="P66" s="5" t="inlineStr">
         <is>
@@ -4854,12 +4854,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>3202020001</t>
+          <t>3102110003</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>SACO ABONO ORGANICO EQUINO 50L</t>
+          <t>SACO TIERRA ENRIQUECIDA 50L</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -4878,13 +4878,13 @@
         </is>
       </c>
       <c r="F67" s="3" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>5.95</v>
+        <v>6.49</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>2.73</v>
+        <v>2.93</v>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
@@ -4897,19 +4897,19 @@
         </is>
       </c>
       <c r="K67" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>35.7</v>
+        <v>240.13</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>19.32</v>
+        <v>131.72</v>
       </c>
       <c r="P67" s="5" t="inlineStr">
         <is>
@@ -4920,12 +4920,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>3202030004</t>
+          <t>3202020001</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SACO HUMUS DE LOMBRIZ 50L</t>
+          <t>SACO ABONO ORGANICO EQUINO 50L</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -4947,10 +4947,10 @@
         <v>6</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>13.95</v>
+        <v>5.95</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>6.37</v>
+        <v>2.73</v>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>83.7</v>
+        <v>35.7</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>45.48</v>
+        <v>19.32</v>
       </c>
       <c r="P68" s="5" t="inlineStr">
         <is>
@@ -4986,12 +4986,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>3202030005</t>
+          <t>3202030004</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SACO MANTILLO SUPER 50L</t>
+          <t>SACO HUMUS DE LOMBRIZ 50L</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -5010,13 +5010,13 @@
         </is>
       </c>
       <c r="F69" s="3" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>5.49</v>
+        <v>13.95</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>2.19</v>
+        <v>6.37</v>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
@@ -5029,19 +5029,19 @@
         </is>
       </c>
       <c r="K69" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>290.97</v>
+        <v>83.7</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>174.9</v>
+        <v>45.48</v>
       </c>
       <c r="P69" s="5" t="inlineStr">
         <is>
@@ -5052,12 +5052,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>3202030006</t>
+          <t>3202030005</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SACO RECEBO SUPER 45L</t>
+          <t>SACO MANTILLO SUPER 50L</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -5076,13 +5076,13 @@
         </is>
       </c>
       <c r="F70" s="3" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>6.99</v>
+        <v>5.49</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>3.13</v>
+        <v>2.19</v>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
@@ -5095,19 +5095,19 @@
         </is>
       </c>
       <c r="K70" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>90.87</v>
+        <v>290.97</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>50.18</v>
+        <v>174.9</v>
       </c>
       <c r="P70" s="5" t="inlineStr">
         <is>
@@ -5118,158 +5118,214 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
+          <t>3202030006</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>SACO RECEBO SUPER 45L</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>tierras_aridos</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G71" s="4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L71" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="M71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4" t="n">
+        <v>90.87</v>
+      </c>
+      <c r="O71" s="4" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="P71" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
           <t>3203010001</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>SACO CORTEZA PINO EMUFLOR 50L</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>         </t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>        </t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>tierras_aridos</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="n">
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>tierras_aridos</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G71" s="4" t="n">
+      <c r="G72" s="4" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H71" s="4" t="n">
+      <c r="H72" s="4" t="n">
         <v>4.01</v>
       </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K71" s="3" t="n">
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="L71" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N71" s="4" t="n">
+      <c r="L72" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="O71" s="4" t="n">
+      <c r="O72" s="4" t="n">
         <v>39.52</v>
       </c>
-      <c r="P71" s="5" t="inlineStr">
+      <c r="P72" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="6" t="inlineStr">
+    <row r="74">
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>METRICAS DE RESUMEN</t>
         </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="7" t="inlineStr">
-        <is>
-          <t>Total_Unidades:</t>
-        </is>
-      </c>
-      <c r="C74" s="8" t="n">
-        <v>630</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="7" t="inlineStr">
         <is>
-          <t>Total_Articulos:</t>
+          <t>Total_Unidades:</t>
         </is>
       </c>
       <c r="C75" s="8" t="n">
-        <v>70</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="7" t="inlineStr">
         <is>
-          <t>Total_Importe:</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
-        <is>
-          <t>5381.35€</t>
-        </is>
+          <t>Total_Articulos:</t>
+        </is>
+      </c>
+      <c r="C76" s="8" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="7" t="inlineStr">
         <is>
-          <t>Objetivo_Semana:</t>
+          <t>Total_Importe:</t>
         </is>
       </c>
       <c r="C77" s="8" t="inlineStr">
         <is>
-          <t>4097.24€</t>
+          <t>5387.14€</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="7" t="inlineStr">
         <is>
-          <t>Factor_Crecimiento:</t>
+          <t>Objetivo_Semana:</t>
         </is>
       </c>
       <c r="C78" s="8" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4097.24€</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="7" t="inlineStr">
         <is>
-          <t>Factor_Festivo:</t>
+          <t>Factor_Crecimiento:</t>
         </is>
       </c>
       <c r="C79" s="8" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>5%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="7" t="inlineStr">
         <is>
-          <t>Articulos_A:</t>
-        </is>
-      </c>
-      <c r="C80" s="8" t="n">
-        <v>0</v>
+          <t>Factor_Festivo:</t>
+        </is>
+      </c>
+      <c r="C80" s="8" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="7" t="inlineStr">
         <is>
-          <t>Articulos_B:</t>
+          <t>Articulos_A:</t>
         </is>
       </c>
       <c r="C81" s="8" t="n">
@@ -5279,48 +5335,58 @@
     <row r="82">
       <c r="B82" s="7" t="inlineStr">
         <is>
-          <t>Articulos_C:</t>
+          <t>Articulos_B:</t>
         </is>
       </c>
       <c r="C82" s="8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_%:</t>
-        </is>
-      </c>
-      <c r="C83" s="8" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+          <t>Articulos_C:</t>
+        </is>
+      </c>
+      <c r="C83" s="8" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_Objetivo:</t>
-        </is>
-      </c>
-      <c r="C84" s="8" t="n">
-        <v>211</v>
+          <t>Stock_Minimo_%:</t>
+        </is>
+      </c>
+      <c r="C84" s="8" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="7" t="inlineStr">
         <is>
+          <t>Stock_Minimo_Objetivo:</t>
+        </is>
+      </c>
+      <c r="C85" s="8" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="7" t="inlineStr">
+        <is>
           <t>Total_Ajuste_Stock:</t>
         </is>
       </c>
-      <c r="C85" s="8" t="n">
-        <v>42</v>
+      <c r="C86" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
